--- a/tabelas/tabela1.xlsx
+++ b/tabelas/tabela1.xlsx
@@ -387,17 +387,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>**Total**, N = 24367</t>
+          <t>**Overall**  
+N = 24367</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>**1**, N = 12281</t>
+          <t>**1**  
+N = 12281</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>**2**, N = 12086</t>
+          <t>**2**  
+N = 12086</t>
         </is>
       </c>
     </row>
@@ -658,17 +661,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1936 (1473, 2516)</t>
+          <t>1960 (1448, 2631)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2250 (1731, 2875)</t>
+          <t>2294 (1702, 3017)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1682 (1318, 2107)</t>
+          <t>1706 (1284, 2210)</t>
         </is>
       </c>
     </row>
@@ -680,17 +683,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>233 (175, 306)</t>
+          <t>235 (170, 319)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>266 (200, 346)</t>
+          <t>269 (194, 362)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>206 (157, 265)</t>
+          <t>208 (153, 275)</t>
         </is>
       </c>
     </row>
@@ -702,17 +705,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>75 (56, 99)</t>
+          <t>74 (53, 102)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>88 (66, 114)</t>
+          <t>88 (63, 118)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>65 (50, 83)</t>
+          <t>64 (46, 85)</t>
         </is>
       </c>
     </row>
@@ -724,17 +727,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>72 (51, 99)</t>
+          <t>73 (49, 104)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>83 (59, 112)</t>
+          <t>84 (57, 118)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>63 (45, 84)</t>
+          <t>64 (43, 89)</t>
         </is>
       </c>
     </row>
@@ -924,22 +927,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mediana (AIQ); n (%)</t>
+          <t>Mediana (Q1, Q3); n (%)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mediana (AIQ); n (%)</t>
+          <t>Mediana (Q1, Q3); n (%)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mediana (AIQ); n (%)</t>
+          <t>Mediana (Q1, Q3); n (%)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mediana (AIQ); n (%)</t>
+          <t>Mediana (Q1, Q3); n (%)</t>
         </is>
       </c>
     </row>
